--- a/medicine/Premiers secours et secourisme/Psychosocial/Psychosocial.xlsx
+++ b/medicine/Premiers secours et secourisme/Psychosocial/Psychosocial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychosocial est un terme qui décrit chez une personne, son développement psychologique et son interaction dans un environnement social. Il existe en sciences humaines une variété d'approches au confluent des champs psychologiques et sociaux. 
 L'une d'entre elles concerne le domaine de l'assistance aux personnes en cas d'événement critique, comme une catastrophe. L'assistance psychosociale est une démarche qui vise au rétablissement des personnes à travers une approche collective centrée sur la connaissance des besoins individuels et du processus de deuil. 
